--- a/Data Sources/Energy Bills/GasUnit.xlsx
+++ b/Data Sources/Energy Bills/GasUnit.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/ScottishEnergyStatsProcessing/Data Sources/Energy Bills/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beisgov-my.sharepoint.com/personal/william_nye_beis_gov_uk/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{4CEB5C41-8485-46ED-939D-98149DAD69D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0BD18B8B-9393-488A-9F40-5223FA8A9673}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CEB5C41-8485-46ED-939D-98149DAD69D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40" yWindow="-40" windowWidth="19280" windowHeight="10280" tabRatio="875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="30" r:id="rId1"/>
-    <sheet name="Standard" sheetId="34" r:id="rId2"/>
+    <sheet name="2019 Gas" sheetId="34" r:id="rId2"/>
     <sheet name="Metadata" sheetId="25" state="hidden" r:id="rId3"/>
     <sheet name="2016 Gas" sheetId="33" state="hidden" r:id="rId4"/>
     <sheet name="2018 Gas " sheetId="37" state="hidden" r:id="rId5"/>
@@ -38,7 +38,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'2015 Gas'!$A$1:$L$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2016 Gas'!$A$1:$M$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2018 Gas '!$A$1:$L$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Standard!$A$1:$L$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2019 Gas'!$A$1:$L$37</definedName>
     <definedName name="t25Q2">#REF!</definedName>
     <definedName name="table_25_Q2">#REF!</definedName>
   </definedNames>
@@ -3001,11 +3001,11 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12.75" customHeight="1">
@@ -3200,7 +3200,7 @@
       <c r="P10" s="75"/>
       <c r="Q10" s="75"/>
     </row>
-    <row r="11" spans="1:17" ht="16" customHeight="1">
+    <row r="11" spans="1:17" ht="15.95" customHeight="1">
       <c r="A11" s="75"/>
       <c r="B11" s="77"/>
       <c r="C11" s="77"/>
@@ -3219,7 +3219,7 @@
       <c r="P11" s="75"/>
       <c r="Q11" s="75"/>
     </row>
-    <row r="12" spans="1:17" ht="16" customHeight="1">
+    <row r="12" spans="1:17" ht="15.95" customHeight="1">
       <c r="A12" s="75"/>
       <c r="B12" s="77" t="s">
         <v>56</v>
@@ -3242,7 +3242,7 @@
       <c r="P12" s="75"/>
       <c r="Q12" s="75"/>
     </row>
-    <row r="13" spans="1:17" ht="16" customHeight="1">
+    <row r="13" spans="1:17" ht="15.95" customHeight="1">
       <c r="A13" s="75"/>
       <c r="B13" s="77" t="s">
         <v>57</v>
@@ -3265,7 +3265,7 @@
       <c r="P13" s="75"/>
       <c r="Q13" s="75"/>
     </row>
-    <row r="14" spans="1:17" ht="16" customHeight="1">
+    <row r="14" spans="1:17" ht="15.95" customHeight="1">
       <c r="A14" s="75"/>
       <c r="B14" s="77" t="s">
         <v>58</v>
@@ -3288,7 +3288,7 @@
       <c r="P14" s="75"/>
       <c r="Q14" s="75"/>
     </row>
-    <row r="15" spans="1:17" ht="16" customHeight="1">
+    <row r="15" spans="1:17" ht="15.95" customHeight="1">
       <c r="A15" s="75"/>
       <c r="B15" s="78"/>
       <c r="C15" s="78"/>
@@ -3307,7 +3307,7 @@
       <c r="P15" s="75"/>
       <c r="Q15" s="75"/>
     </row>
-    <row r="16" spans="1:17" ht="16" customHeight="1">
+    <row r="16" spans="1:17" ht="15.95" customHeight="1">
       <c r="A16" s="75"/>
       <c r="B16" s="81" t="s">
         <v>59</v>
@@ -3328,7 +3328,7 @@
       <c r="P16" s="75"/>
       <c r="Q16" s="75"/>
     </row>
-    <row r="17" spans="1:17" ht="16" customHeight="1">
+    <row r="17" spans="1:17" ht="15.95" customHeight="1">
       <c r="A17" s="75"/>
       <c r="B17" s="77" t="s">
         <v>60</v>
@@ -3351,7 +3351,7 @@
       <c r="P17" s="75"/>
       <c r="Q17" s="75"/>
     </row>
-    <row r="18" spans="1:17" ht="16" customHeight="1">
+    <row r="18" spans="1:17" ht="15.95" customHeight="1">
       <c r="A18" s="75"/>
       <c r="B18" s="77" t="s">
         <v>61</v>
@@ -3374,7 +3374,7 @@
       <c r="P18" s="75"/>
       <c r="Q18" s="75"/>
     </row>
-    <row r="19" spans="1:17" ht="16" customHeight="1">
+    <row r="19" spans="1:17" ht="15.95" customHeight="1">
       <c r="A19" s="75"/>
       <c r="B19" s="77"/>
       <c r="C19" s="77"/>
@@ -3393,7 +3393,7 @@
       <c r="P19" s="75"/>
       <c r="Q19" s="75"/>
     </row>
-    <row r="20" spans="1:17" ht="16" customHeight="1">
+    <row r="20" spans="1:17" ht="15.95" customHeight="1">
       <c r="A20" s="75"/>
       <c r="B20" s="81" t="s">
         <v>62</v>
@@ -3414,7 +3414,7 @@
       <c r="P20" s="75"/>
       <c r="Q20" s="75"/>
     </row>
-    <row r="21" spans="1:17" ht="16" customHeight="1">
+    <row r="21" spans="1:17" ht="15.95" customHeight="1">
       <c r="A21" s="75"/>
       <c r="B21" s="77" t="s">
         <v>77</v>
@@ -3435,7 +3435,7 @@
       <c r="P21" s="75"/>
       <c r="Q21" s="75"/>
     </row>
-    <row r="22" spans="1:17" ht="16" customHeight="1">
+    <row r="22" spans="1:17" ht="15.95" customHeight="1">
       <c r="A22" s="75"/>
       <c r="B22" s="77" t="s">
         <v>78</v>
@@ -3456,7 +3456,7 @@
       <c r="P22" s="75"/>
       <c r="Q22" s="75"/>
     </row>
-    <row r="23" spans="1:17" ht="16" customHeight="1">
+    <row r="23" spans="1:17" ht="15.95" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="77"/>
       <c r="C23" s="77"/>
@@ -3475,7 +3475,7 @@
       <c r="P23" s="75"/>
       <c r="Q23" s="75"/>
     </row>
-    <row r="24" spans="1:17" ht="16" customHeight="1">
+    <row r="24" spans="1:17" ht="15.95" customHeight="1">
       <c r="A24" s="75"/>
       <c r="B24" s="81" t="s">
         <v>63</v>
@@ -3496,7 +3496,7 @@
       <c r="P24" s="75"/>
       <c r="Q24" s="75"/>
     </row>
-    <row r="25" spans="1:17" ht="16" customHeight="1">
+    <row r="25" spans="1:17" ht="15.95" customHeight="1">
       <c r="A25" s="75"/>
       <c r="B25" s="77" t="s">
         <v>64</v>
@@ -3519,7 +3519,7 @@
       <c r="P25" s="75"/>
       <c r="Q25" s="75"/>
     </row>
-    <row r="26" spans="1:17" ht="16" customHeight="1">
+    <row r="26" spans="1:17" ht="15.95" customHeight="1">
       <c r="A26" s="75"/>
       <c r="B26" s="77" t="s">
         <v>66</v>
@@ -3542,7 +3542,7 @@
       <c r="P26" s="75"/>
       <c r="Q26" s="75"/>
     </row>
-    <row r="27" spans="1:17" ht="16" customHeight="1">
+    <row r="27" spans="1:17" ht="15.95" customHeight="1">
       <c r="A27" s="75"/>
       <c r="B27" s="77" t="s">
         <v>68</v>
@@ -3565,7 +3565,7 @@
       <c r="P27" s="75"/>
       <c r="Q27" s="75"/>
     </row>
-    <row r="28" spans="1:17" ht="16" customHeight="1">
+    <row r="28" spans="1:17" ht="15.95" customHeight="1">
       <c r="A28" s="75"/>
       <c r="B28" s="77" t="s">
         <v>69</v>
@@ -3588,7 +3588,7 @@
       <c r="P28" s="75"/>
       <c r="Q28" s="75"/>
     </row>
-    <row r="29" spans="1:17" ht="16" customHeight="1">
+    <row r="29" spans="1:17" ht="15.95" customHeight="1">
       <c r="A29" s="75"/>
       <c r="B29" s="77" t="s">
         <v>71</v>
@@ -3611,7 +3611,7 @@
       <c r="P29" s="75"/>
       <c r="Q29" s="75"/>
     </row>
-    <row r="30" spans="1:17" ht="16" customHeight="1">
+    <row r="30" spans="1:17" ht="15.95" customHeight="1">
       <c r="A30" s="75"/>
       <c r="B30" s="77"/>
       <c r="C30" s="77"/>
@@ -3630,7 +3630,7 @@
       <c r="P30" s="75"/>
       <c r="Q30" s="75"/>
     </row>
-    <row r="31" spans="1:17" ht="16" customHeight="1">
+    <row r="31" spans="1:17" ht="15.95" customHeight="1">
       <c r="A31" s="75"/>
       <c r="B31" s="77"/>
       <c r="C31" s="77"/>
@@ -3649,7 +3649,7 @@
       <c r="P31" s="75"/>
       <c r="Q31" s="75"/>
     </row>
-    <row r="32" spans="1:17" ht="16" customHeight="1">
+    <row r="32" spans="1:17" ht="15.95" customHeight="1">
       <c r="A32" s="75"/>
       <c r="B32" s="81" t="s">
         <v>73</v>
@@ -3670,7 +3670,7 @@
       <c r="P32" s="75"/>
       <c r="Q32" s="75"/>
     </row>
-    <row r="33" spans="1:17" ht="16" customHeight="1">
+    <row r="33" spans="1:17" ht="15.95" customHeight="1">
       <c r="A33" s="75"/>
       <c r="B33" s="77" t="s">
         <v>81</v>
@@ -3697,7 +3697,7 @@
       <c r="P33" s="75"/>
       <c r="Q33" s="75"/>
     </row>
-    <row r="34" spans="1:17" ht="16" customHeight="1">
+    <row r="34" spans="1:17" ht="15.95" customHeight="1">
       <c r="A34" s="75"/>
       <c r="B34" s="77" t="s">
         <v>96</v>
@@ -3724,7 +3724,7 @@
       <c r="P34" s="75"/>
       <c r="Q34" s="75"/>
     </row>
-    <row r="35" spans="1:17" ht="16" customHeight="1">
+    <row r="35" spans="1:17" ht="15.95" customHeight="1">
       <c r="A35" s="75"/>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
@@ -3743,71 +3743,71 @@
       <c r="P35" s="75"/>
       <c r="Q35" s="75"/>
     </row>
-    <row r="36" spans="1:17" ht="16" customHeight="1"/>
-    <row r="37" spans="1:17" ht="16" customHeight="1"/>
-    <row r="38" spans="1:17" ht="16" customHeight="1"/>
-    <row r="39" spans="1:17" ht="16" customHeight="1"/>
-    <row r="40" spans="1:17" ht="16" customHeight="1"/>
-    <row r="41" spans="1:17" ht="16" customHeight="1"/>
-    <row r="42" spans="1:17" ht="16" customHeight="1"/>
-    <row r="43" spans="1:17" ht="16" customHeight="1"/>
-    <row r="44" spans="1:17" ht="16" customHeight="1"/>
-    <row r="45" spans="1:17" ht="16" customHeight="1"/>
-    <row r="46" spans="1:17" ht="16" customHeight="1"/>
-    <row r="47" spans="1:17" ht="16" customHeight="1"/>
-    <row r="48" spans="1:17" ht="16" customHeight="1"/>
-    <row r="49" ht="16" customHeight="1"/>
-    <row r="50" ht="16" customHeight="1"/>
-    <row r="51" ht="16" customHeight="1"/>
-    <row r="52" ht="16" customHeight="1"/>
-    <row r="53" ht="16" customHeight="1"/>
-    <row r="54" ht="16" customHeight="1"/>
-    <row r="55" ht="16" customHeight="1"/>
-    <row r="56" ht="16" customHeight="1"/>
-    <row r="57" ht="16" customHeight="1"/>
-    <row r="58" ht="16" customHeight="1"/>
-    <row r="59" ht="16" customHeight="1"/>
-    <row r="60" ht="16" customHeight="1"/>
-    <row r="61" ht="16" customHeight="1"/>
-    <row r="62" ht="16" customHeight="1"/>
-    <row r="63" ht="16" customHeight="1"/>
-    <row r="64" ht="16" customHeight="1"/>
-    <row r="65" ht="16" customHeight="1"/>
-    <row r="66" ht="16" customHeight="1"/>
-    <row r="67" ht="16" customHeight="1"/>
-    <row r="68" ht="16" customHeight="1"/>
-    <row r="69" ht="16" customHeight="1"/>
-    <row r="70" ht="16" customHeight="1"/>
-    <row r="71" ht="16" customHeight="1"/>
-    <row r="72" ht="16" customHeight="1"/>
-    <row r="73" ht="16" customHeight="1"/>
-    <row r="74" ht="16" customHeight="1"/>
-    <row r="75" ht="16" customHeight="1"/>
-    <row r="76" ht="16" customHeight="1"/>
-    <row r="77" ht="16" customHeight="1"/>
-    <row r="78" ht="16" customHeight="1"/>
-    <row r="79" ht="16" customHeight="1"/>
-    <row r="80" ht="16" customHeight="1"/>
-    <row r="81" ht="16" customHeight="1"/>
-    <row r="82" ht="16" customHeight="1"/>
-    <row r="83" ht="16" customHeight="1"/>
-    <row r="84" ht="16" customHeight="1"/>
-    <row r="85" ht="16" customHeight="1"/>
-    <row r="86" ht="16" customHeight="1"/>
-    <row r="87" ht="16" customHeight="1"/>
-    <row r="88" ht="16" customHeight="1"/>
-    <row r="89" ht="16" customHeight="1"/>
-    <row r="90" ht="16" customHeight="1"/>
-    <row r="91" ht="16" customHeight="1"/>
-    <row r="92" ht="16" customHeight="1"/>
-    <row r="93" ht="16" customHeight="1"/>
-    <row r="94" ht="16" customHeight="1"/>
-    <row r="95" ht="16" customHeight="1"/>
-    <row r="96" ht="16" customHeight="1"/>
-    <row r="97" ht="16" customHeight="1"/>
-    <row r="98" ht="16" customHeight="1"/>
-    <row r="99" ht="16" customHeight="1"/>
-    <row r="100" ht="16" customHeight="1"/>
+    <row r="36" spans="1:17" ht="15.95" customHeight="1"/>
+    <row r="37" spans="1:17" ht="15.95" customHeight="1"/>
+    <row r="38" spans="1:17" ht="15.95" customHeight="1"/>
+    <row r="39" spans="1:17" ht="15.95" customHeight="1"/>
+    <row r="40" spans="1:17" ht="15.95" customHeight="1"/>
+    <row r="41" spans="1:17" ht="15.95" customHeight="1"/>
+    <row r="42" spans="1:17" ht="15.95" customHeight="1"/>
+    <row r="43" spans="1:17" ht="15.95" customHeight="1"/>
+    <row r="44" spans="1:17" ht="15.95" customHeight="1"/>
+    <row r="45" spans="1:17" ht="15.95" customHeight="1"/>
+    <row r="46" spans="1:17" ht="15.95" customHeight="1"/>
+    <row r="47" spans="1:17" ht="15.95" customHeight="1"/>
+    <row r="48" spans="1:17" ht="15.95" customHeight="1"/>
+    <row r="49" ht="15.95" customHeight="1"/>
+    <row r="50" ht="15.95" customHeight="1"/>
+    <row r="51" ht="15.95" customHeight="1"/>
+    <row r="52" ht="15.95" customHeight="1"/>
+    <row r="53" ht="15.95" customHeight="1"/>
+    <row r="54" ht="15.95" customHeight="1"/>
+    <row r="55" ht="15.95" customHeight="1"/>
+    <row r="56" ht="15.95" customHeight="1"/>
+    <row r="57" ht="15.95" customHeight="1"/>
+    <row r="58" ht="15.95" customHeight="1"/>
+    <row r="59" ht="15.95" customHeight="1"/>
+    <row r="60" ht="15.95" customHeight="1"/>
+    <row r="61" ht="15.95" customHeight="1"/>
+    <row r="62" ht="15.95" customHeight="1"/>
+    <row r="63" ht="15.95" customHeight="1"/>
+    <row r="64" ht="15.95" customHeight="1"/>
+    <row r="65" ht="15.95" customHeight="1"/>
+    <row r="66" ht="15.95" customHeight="1"/>
+    <row r="67" ht="15.95" customHeight="1"/>
+    <row r="68" ht="15.95" customHeight="1"/>
+    <row r="69" ht="15.95" customHeight="1"/>
+    <row r="70" ht="15.95" customHeight="1"/>
+    <row r="71" ht="15.95" customHeight="1"/>
+    <row r="72" ht="15.95" customHeight="1"/>
+    <row r="73" ht="15.95" customHeight="1"/>
+    <row r="74" ht="15.95" customHeight="1"/>
+    <row r="75" ht="15.95" customHeight="1"/>
+    <row r="76" ht="15.95" customHeight="1"/>
+    <row r="77" ht="15.95" customHeight="1"/>
+    <row r="78" ht="15.95" customHeight="1"/>
+    <row r="79" ht="15.95" customHeight="1"/>
+    <row r="80" ht="15.95" customHeight="1"/>
+    <row r="81" ht="15.95" customHeight="1"/>
+    <row r="82" ht="15.95" customHeight="1"/>
+    <row r="83" ht="15.95" customHeight="1"/>
+    <row r="84" ht="15.95" customHeight="1"/>
+    <row r="85" ht="15.95" customHeight="1"/>
+    <row r="86" ht="15.95" customHeight="1"/>
+    <row r="87" ht="15.95" customHeight="1"/>
+    <row r="88" ht="15.95" customHeight="1"/>
+    <row r="89" ht="15.95" customHeight="1"/>
+    <row r="90" ht="15.95" customHeight="1"/>
+    <row r="91" ht="15.95" customHeight="1"/>
+    <row r="92" ht="15.95" customHeight="1"/>
+    <row r="93" ht="15.95" customHeight="1"/>
+    <row r="94" ht="15.95" customHeight="1"/>
+    <row r="95" ht="15.95" customHeight="1"/>
+    <row r="96" ht="15.95" customHeight="1"/>
+    <row r="97" ht="15.95" customHeight="1"/>
+    <row r="98" ht="15.95" customHeight="1"/>
+    <row r="99" ht="15.95" customHeight="1"/>
+    <row r="100" ht="15.95" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E17" location="Metadata!A1" display="metadata - with details of how these experimental statistics were produced and should be used" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3837,21 +3837,21 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="4" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="2.1796875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="17.1796875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="2.1796875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="16.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="9"/>
+    <col min="13" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1">
@@ -3872,7 +3872,7 @@
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="12" thickBot="1">
+    <row r="3" spans="1:12" s="14" customFormat="1" thickBot="1">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
@@ -4407,19 +4407,19 @@
         <v>106.62995819927114</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="19" customFormat="1" ht="12" thickTop="1">
+    <row r="21" spans="1:12" s="19" customFormat="1" thickTop="1">
       <c r="B21" s="20"/>
       <c r="E21" s="20"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:12" s="19" customFormat="1" ht="11.5">
+    <row r="22" spans="1:12" s="19" customFormat="1" ht="12">
       <c r="A22" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="20"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:12" s="19" customFormat="1" ht="11.5">
+    <row r="23" spans="1:12" s="19" customFormat="1" ht="12">
       <c r="A23" s="19" t="s">
         <v>23</v>
       </c>
@@ -4432,14 +4432,14 @@
       <c r="E24" s="20"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="1:12" s="19" customFormat="1" ht="11.5">
+    <row r="25" spans="1:12" s="19" customFormat="1" ht="12">
       <c r="A25" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="20"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:12" s="19" customFormat="1" ht="11.5">
+    <row r="26" spans="1:12" s="19" customFormat="1" ht="12">
       <c r="A26" s="19" t="s">
         <v>24</v>
       </c>
@@ -4459,7 +4459,7 @@
       <c r="H27" s="124"/>
       <c r="I27" s="124"/>
     </row>
-    <row r="28" spans="1:12" s="19" customFormat="1" ht="11.5">
+    <row r="28" spans="1:12" s="19" customFormat="1" ht="12">
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
@@ -4674,21 +4674,21 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="4" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="2.1796875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="17.1796875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="2.1796875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="16.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="9"/>
+    <col min="13" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1">
@@ -4709,7 +4709,7 @@
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="12" thickBot="1">
+    <row r="3" spans="1:12" s="14" customFormat="1" thickBot="1">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
@@ -5244,12 +5244,12 @@
         <v>94.087134772510808</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="19" customFormat="1" ht="12" thickTop="1">
+    <row r="21" spans="1:12" s="19" customFormat="1" thickTop="1">
       <c r="B21" s="20"/>
       <c r="E21" s="20"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:12" s="19" customFormat="1" ht="11.5">
+    <row r="22" spans="1:12" s="19" customFormat="1" ht="12">
       <c r="A22" s="19" t="s">
         <v>22</v>
       </c>
@@ -5257,27 +5257,27 @@
       <c r="H22" s="20"/>
       <c r="L22" s="20"/>
     </row>
-    <row r="23" spans="1:12" s="19" customFormat="1" ht="11.5">
+    <row r="23" spans="1:12" s="19" customFormat="1" ht="12">
       <c r="A23" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="20"/>
     </row>
-    <row r="24" spans="1:12" s="19" customFormat="1" ht="11.5">
+    <row r="24" spans="1:12" s="19" customFormat="1" ht="12">
       <c r="A24" s="19" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="20"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="1:12" s="19" customFormat="1" ht="11.5">
+    <row r="25" spans="1:12" s="19" customFormat="1" ht="12">
       <c r="A25" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="20"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:12" s="19" customFormat="1" ht="11.5">
+    <row r="26" spans="1:12" s="19" customFormat="1" ht="12">
       <c r="A26" s="19" t="s">
         <v>24</v>
       </c>
@@ -5297,7 +5297,7 @@
       <c r="H27" s="124"/>
       <c r="I27" s="124"/>
     </row>
-    <row r="28" spans="1:12" s="19" customFormat="1" ht="11.5">
+    <row r="28" spans="1:12" s="19" customFormat="1" ht="12">
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
@@ -5425,20 +5425,20 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="9" customWidth="1"/>
     <col min="7" max="7" width="5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="5.54296875" style="9" customWidth="1"/>
-    <col min="11" max="12" width="9.81640625" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="9"/>
+    <col min="8" max="8" width="9.85546875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="9" customWidth="1"/>
+    <col min="11" max="12" width="9.85546875" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" customHeight="1">
@@ -5459,7 +5459,7 @@
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
     </row>
-    <row r="3" spans="1:18" s="14" customFormat="1" ht="12" thickBot="1">
+    <row r="3" spans="1:18" s="14" customFormat="1" thickBot="1">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
@@ -6043,13 +6043,13 @@
       <c r="P20" s="20"/>
       <c r="R20" s="46"/>
     </row>
-    <row r="21" spans="1:18" s="19" customFormat="1" ht="13" thickTop="1">
+    <row r="21" spans="1:18" s="19" customFormat="1" ht="13.5" thickTop="1">
       <c r="B21" s="20"/>
       <c r="E21" s="20"/>
       <c r="H21" s="20"/>
       <c r="R21" s="46"/>
     </row>
-    <row r="22" spans="1:18" s="19" customFormat="1" ht="11.5">
+    <row r="22" spans="1:18" s="19" customFormat="1" ht="12">
       <c r="A22" s="19" t="s">
         <v>22</v>
       </c>
@@ -6092,7 +6092,7 @@
       <c r="I25" s="123"/>
       <c r="R25" s="46"/>
     </row>
-    <row r="26" spans="1:18" s="19" customFormat="1" ht="11.5">
+    <row r="26" spans="1:18" s="19" customFormat="1" ht="12">
       <c r="A26" s="19" t="s">
         <v>24</v>
       </c>
@@ -6374,27 +6374,27 @@
   </sheetPr>
   <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="1.54296875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="1.54296875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="1.54296875" style="9" customWidth="1"/>
-    <col min="11" max="12" width="10.54296875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="2.54296875" style="9" customWidth="1"/>
-    <col min="14" max="23" width="9.1796875" style="9"/>
-    <col min="24" max="24" width="11.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="1" width="21.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" style="9" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="9" customWidth="1"/>
+    <col min="14" max="23" width="9.140625" style="9"/>
+    <col min="24" max="24" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="88" customFormat="1" ht="18" customHeight="1">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="L4" s="120"/>
     </row>
-    <row r="5" spans="1:29" s="19" customFormat="1" ht="64" customHeight="1">
+    <row r="5" spans="1:29" s="19" customFormat="1" ht="63.95" customHeight="1">
       <c r="A5" s="107" t="s">
         <v>91</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="6" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A6" s="95" t="s">
         <v>37</v>
       </c>
@@ -6533,7 +6533,7 @@
       <c r="AB6" s="67"/>
       <c r="AC6" s="67"/>
     </row>
-    <row r="7" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="7" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A7" s="95" t="s">
         <v>38</v>
       </c>
@@ -6581,7 +6581,7 @@
       <c r="AB7" s="67"/>
       <c r="AC7" s="67"/>
     </row>
-    <row r="8" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="8" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A8" s="95" t="s">
         <v>10</v>
       </c>
@@ -6629,7 +6629,7 @@
       <c r="AB8" s="67"/>
       <c r="AC8" s="67"/>
     </row>
-    <row r="9" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="9" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A9" s="95" t="s">
         <v>79</v>
       </c>
@@ -6677,7 +6677,7 @@
       <c r="AB9" s="67"/>
       <c r="AC9" s="67"/>
     </row>
-    <row r="10" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="10" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A10" s="95" t="s">
         <v>40</v>
       </c>
@@ -6725,7 +6725,7 @@
       <c r="AB10" s="67"/>
       <c r="AC10" s="67"/>
     </row>
-    <row r="11" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="11" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A11" s="95" t="s">
         <v>41</v>
       </c>
@@ -6773,7 +6773,7 @@
       <c r="AB11" s="67"/>
       <c r="AC11" s="67"/>
     </row>
-    <row r="12" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="12" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A12" s="95" t="s">
         <v>42</v>
       </c>
@@ -6821,7 +6821,7 @@
       <c r="AB12" s="67"/>
       <c r="AC12" s="67"/>
     </row>
-    <row r="13" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="13" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A13" s="95" t="s">
         <v>43</v>
       </c>
@@ -6869,7 +6869,7 @@
       <c r="AB13" s="67"/>
       <c r="AC13" s="67"/>
     </row>
-    <row r="14" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="14" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A14" s="95" t="s">
         <v>44</v>
       </c>
@@ -6917,7 +6917,7 @@
       <c r="AB14" s="67"/>
       <c r="AC14" s="67"/>
     </row>
-    <row r="15" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="15" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A15" s="95" t="s">
         <v>45</v>
       </c>
@@ -6965,7 +6965,7 @@
       <c r="AB15" s="67"/>
       <c r="AC15" s="67"/>
     </row>
-    <row r="16" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="16" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A16" s="95" t="s">
         <v>46</v>
       </c>
@@ -7013,7 +7013,7 @@
       <c r="AB16" s="67"/>
       <c r="AC16" s="67"/>
     </row>
-    <row r="17" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="17" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A17" s="95" t="s">
         <v>47</v>
       </c>
@@ -7061,7 +7061,7 @@
       <c r="AB17" s="67"/>
       <c r="AC17" s="67"/>
     </row>
-    <row r="18" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="18" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A18" s="95" t="s">
         <v>48</v>
       </c>
@@ -7109,7 +7109,7 @@
       <c r="AB18" s="67"/>
       <c r="AC18" s="67"/>
     </row>
-    <row r="19" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="19" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A19" s="95" t="s">
         <v>49</v>
       </c>
@@ -7951,10 +7951,10 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="85.54296875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="85.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="88" customFormat="1" ht="18" customHeight="1">
@@ -7984,7 +7984,7 @@
     <row r="4" spans="1:9">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="15.5">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -7995,7 +7995,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="17.25">
       <c r="A6" s="5"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -8006,7 +8006,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="17.25">
       <c r="A7" s="5"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -8017,7 +8017,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="17.25">
       <c r="A8" s="5"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -8028,7 +8028,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="17.25">
       <c r="A9" s="5"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -8039,7 +8039,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="17.25">
       <c r="A10" s="5"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -8050,7 +8050,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="17.25">
       <c r="A11" s="5"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -8061,7 +8061,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="15.5">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="7"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8072,7 +8072,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="17.25">
       <c r="A13" s="5"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8083,7 +8083,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="17.25">
       <c r="A14" s="5"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8094,7 +8094,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="15.5">
+    <row r="15" spans="1:9" ht="15">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -8107,12 +8107,12 @@
     <row r="17" spans="1:1">
       <c r="A17" s="3"/>
     </row>
-    <row r="20" spans="1:1" ht="14">
+    <row r="20" spans="1:1" ht="14.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.5">
+    <row r="26" spans="1:1" ht="15">
       <c r="A26" s="2"/>
     </row>
     <row r="33" spans="11:11">
@@ -8149,22 +8149,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="21" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="9" customWidth="1"/>
     <col min="7" max="7" width="5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="5.54296875" style="9" customWidth="1"/>
-    <col min="11" max="12" width="9.81640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="2.54296875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="9" customWidth="1"/>
+    <col min="11" max="12" width="9.85546875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="9" customWidth="1"/>
     <col min="14" max="14" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="9"/>
+    <col min="15" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16.5" customHeight="1">
@@ -8185,7 +8185,7 @@
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
     </row>
-    <row r="3" spans="1:24" s="14" customFormat="1" ht="12" thickBot="1">
+    <row r="3" spans="1:24" s="14" customFormat="1" thickBot="1">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
@@ -8899,13 +8899,13 @@
       <c r="W20" s="67"/>
       <c r="X20" s="67"/>
     </row>
-    <row r="21" spans="1:24" s="19" customFormat="1" ht="13" thickTop="1">
+    <row r="21" spans="1:24" s="19" customFormat="1" ht="13.5" thickTop="1">
       <c r="B21" s="20"/>
       <c r="E21" s="20"/>
       <c r="H21" s="20"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:24" s="19" customFormat="1" ht="11.5">
+    <row r="22" spans="1:24" s="19" customFormat="1" ht="12">
       <c r="A22" s="19" t="s">
         <v>22</v>
       </c>
@@ -8913,7 +8913,7 @@
       <c r="H22" s="20"/>
       <c r="L22" s="20"/>
     </row>
-    <row r="23" spans="1:24" s="19" customFormat="1" ht="11.5">
+    <row r="23" spans="1:24" s="19" customFormat="1" ht="12">
       <c r="A23" s="19" t="s">
         <v>23</v>
       </c>
@@ -8978,7 +8978,7 @@
       <c r="W25" s="66"/>
       <c r="X25" s="66"/>
     </row>
-    <row r="26" spans="1:24" s="19" customFormat="1" ht="11.5">
+    <row r="26" spans="1:24" s="19" customFormat="1" ht="12">
       <c r="A26" s="19" t="s">
         <v>24</v>
       </c>
@@ -9020,7 +9020,7 @@
       <c r="W27" s="66"/>
       <c r="X27" s="66"/>
     </row>
-    <row r="28" spans="1:24" s="19" customFormat="1" ht="11.5">
+    <row r="28" spans="1:24" s="19" customFormat="1" ht="12">
       <c r="A28" s="45"/>
       <c r="B28" s="37"/>
       <c r="C28" s="38"/>
@@ -9477,23 +9477,23 @@
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="1.54296875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="1.54296875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="1.54296875" style="9" customWidth="1"/>
-    <col min="11" max="12" width="10.54296875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="2.54296875" style="9" customWidth="1"/>
-    <col min="14" max="23" width="9.1796875" style="9"/>
-    <col min="24" max="24" width="11.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="1" width="21.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" style="9" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="9" customWidth="1"/>
+    <col min="14" max="23" width="9.140625" style="9"/>
+    <col min="24" max="24" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="88" customFormat="1" ht="18" customHeight="1">
@@ -9552,7 +9552,7 @@
       </c>
       <c r="L4" s="120"/>
     </row>
-    <row r="5" spans="1:29" s="19" customFormat="1" ht="64" customHeight="1">
+    <row r="5" spans="1:29" s="19" customFormat="1" ht="63.95" customHeight="1">
       <c r="A5" s="107" t="s">
         <v>91</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="6" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A6" s="95" t="s">
         <v>37</v>
       </c>
@@ -9632,7 +9632,7 @@
       <c r="AB6" s="67"/>
       <c r="AC6" s="67"/>
     </row>
-    <row r="7" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="7" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A7" s="95" t="s">
         <v>38</v>
       </c>
@@ -9680,7 +9680,7 @@
       <c r="AB7" s="67"/>
       <c r="AC7" s="67"/>
     </row>
-    <row r="8" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="8" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A8" s="95" t="s">
         <v>10</v>
       </c>
@@ -9728,7 +9728,7 @@
       <c r="AB8" s="67"/>
       <c r="AC8" s="67"/>
     </row>
-    <row r="9" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="9" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A9" s="95" t="s">
         <v>79</v>
       </c>
@@ -9776,7 +9776,7 @@
       <c r="AB9" s="67"/>
       <c r="AC9" s="67"/>
     </row>
-    <row r="10" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="10" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A10" s="95" t="s">
         <v>40</v>
       </c>
@@ -9824,7 +9824,7 @@
       <c r="AB10" s="67"/>
       <c r="AC10" s="67"/>
     </row>
-    <row r="11" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="11" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A11" s="95" t="s">
         <v>41</v>
       </c>
@@ -9872,7 +9872,7 @@
       <c r="AB11" s="67"/>
       <c r="AC11" s="67"/>
     </row>
-    <row r="12" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="12" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A12" s="95" t="s">
         <v>42</v>
       </c>
@@ -9920,7 +9920,7 @@
       <c r="AB12" s="67"/>
       <c r="AC12" s="67"/>
     </row>
-    <row r="13" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="13" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A13" s="95" t="s">
         <v>43</v>
       </c>
@@ -9968,7 +9968,7 @@
       <c r="AB13" s="67"/>
       <c r="AC13" s="67"/>
     </row>
-    <row r="14" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="14" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A14" s="95" t="s">
         <v>44</v>
       </c>
@@ -10016,7 +10016,7 @@
       <c r="AB14" s="67"/>
       <c r="AC14" s="67"/>
     </row>
-    <row r="15" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="15" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A15" s="95" t="s">
         <v>45</v>
       </c>
@@ -10064,7 +10064,7 @@
       <c r="AB15" s="67"/>
       <c r="AC15" s="67"/>
     </row>
-    <row r="16" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="16" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A16" s="95" t="s">
         <v>46</v>
       </c>
@@ -10112,7 +10112,7 @@
       <c r="AB16" s="67"/>
       <c r="AC16" s="67"/>
     </row>
-    <row r="17" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="17" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A17" s="95" t="s">
         <v>47</v>
       </c>
@@ -10160,7 +10160,7 @@
       <c r="AB17" s="67"/>
       <c r="AC17" s="67"/>
     </row>
-    <row r="18" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="18" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A18" s="95" t="s">
         <v>48</v>
       </c>
@@ -10208,7 +10208,7 @@
       <c r="AB18" s="67"/>
       <c r="AC18" s="67"/>
     </row>
-    <row r="19" spans="1:29" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="19" spans="1:29" s="19" customFormat="1" ht="15.95" customHeight="1">
       <c r="A19" s="95" t="s">
         <v>49</v>
       </c>
@@ -10309,7 +10309,7 @@
       <c r="E21" s="20"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:29" s="95" customFormat="1" ht="11.5">
+    <row r="22" spans="1:29" s="95" customFormat="1" ht="12">
       <c r="A22" s="125" t="s">
         <v>94</v>
       </c>
@@ -10326,7 +10326,7 @@
       <c r="L22" s="126"/>
       <c r="M22" s="126"/>
     </row>
-    <row r="23" spans="1:29" s="95" customFormat="1" ht="11.5">
+    <row r="23" spans="1:29" s="95" customFormat="1" ht="12">
       <c r="A23" s="125"/>
       <c r="B23" s="126"/>
       <c r="C23" s="126"/>
@@ -10341,7 +10341,7 @@
       <c r="L23" s="126"/>
       <c r="M23" s="126"/>
     </row>
-    <row r="24" spans="1:29" s="95" customFormat="1" ht="11.5">
+    <row r="24" spans="1:29" s="95" customFormat="1" ht="12">
       <c r="A24" s="126"/>
       <c r="B24" s="126"/>
       <c r="C24" s="126"/>
@@ -11095,12 +11095,12 @@
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="46"/>
+    <col min="1" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.5">
+    <row r="1" spans="1:16" ht="18.75">
       <c r="A1" s="8" t="s">
         <v>86</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
     </row>
-    <row r="2" spans="1:16" ht="15.5">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="121" t="s">
         <v>52</v>
       </c>
@@ -11140,7 +11140,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" ht="13" thickBot="1">
+    <row r="3" spans="1:16" ht="13.5" thickBot="1">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
@@ -11160,7 +11160,7 @@
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:16" ht="13" thickTop="1">
+    <row r="4" spans="1:16" ht="13.5" thickTop="1">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -11188,7 +11188,7 @@
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16" ht="48">
+    <row r="5" spans="1:16" ht="49.5">
       <c r="A5" s="17" t="s">
         <v>20</v>
       </c>
@@ -11728,7 +11728,7 @@
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
     </row>
-    <row r="20" spans="1:16" ht="13" thickBot="1">
+    <row r="20" spans="1:16" ht="13.5" thickBot="1">
       <c r="A20" s="23" t="s">
         <v>21</v>
       </c>
@@ -11764,7 +11764,7 @@
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
     </row>
-    <row r="21" spans="1:16" ht="13" thickTop="1">
+    <row r="21" spans="1:16" ht="13.5" thickTop="1">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="19"/>
@@ -12060,20 +12060,20 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="21" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="9" customWidth="1"/>
     <col min="7" max="7" width="5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="5.54296875" style="9" customWidth="1"/>
-    <col min="11" max="12" width="9.81640625" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="9"/>
+    <col min="8" max="8" width="9.85546875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="9" customWidth="1"/>
+    <col min="11" max="12" width="9.85546875" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" customHeight="1">
@@ -12094,7 +12094,7 @@
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
     </row>
-    <row r="3" spans="1:18" s="14" customFormat="1" ht="12" thickBot="1">
+    <row r="3" spans="1:18" s="14" customFormat="1" thickBot="1">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
@@ -12675,12 +12675,12 @@
       <c r="P20" s="20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" s="19" customFormat="1" ht="12" thickTop="1">
+    <row r="21" spans="1:18" s="19" customFormat="1" thickTop="1">
       <c r="B21" s="20"/>
       <c r="E21" s="20"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:18" s="19" customFormat="1" ht="11.5">
+    <row r="22" spans="1:18" s="19" customFormat="1" ht="12">
       <c r="A22" s="19" t="s">
         <v>22</v>
       </c>
@@ -12723,7 +12723,7 @@
       <c r="I25" s="123"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:18" s="19" customFormat="1" ht="11.5">
+    <row r="26" spans="1:18" s="19" customFormat="1" ht="12">
       <c r="A26" s="19" t="s">
         <v>24</v>
       </c>
@@ -13073,21 +13073,21 @@
       <selection activeCell="B31" sqref="B31:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="4" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="2.1796875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="17.1796875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="2.1796875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="16.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="9"/>
+    <col min="13" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" customHeight="1">
@@ -13108,7 +13108,7 @@
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
     </row>
-    <row r="3" spans="1:18" s="14" customFormat="1" ht="12" thickBot="1">
+    <row r="3" spans="1:18" s="14" customFormat="1" thickBot="1">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
@@ -13679,13 +13679,13 @@
       <c r="P20" s="20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" s="19" customFormat="1" ht="13" thickTop="1">
+    <row r="21" spans="1:18" s="19" customFormat="1" ht="13.5" thickTop="1">
       <c r="B21" s="20"/>
       <c r="E21" s="20"/>
       <c r="H21" s="20"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" s="19" customFormat="1" ht="11.5">
+    <row r="22" spans="1:18" s="19" customFormat="1" ht="12">
       <c r="A22" s="19" t="s">
         <v>22</v>
       </c>
@@ -13716,7 +13716,7 @@
       <c r="H25" s="20"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:18" s="19" customFormat="1" ht="11.5">
+    <row r="26" spans="1:18" s="19" customFormat="1" ht="12">
       <c r="A26" s="19" t="s">
         <v>24</v>
       </c>
@@ -14065,21 +14065,21 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="4" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="2.1796875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="17.1796875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="2.1796875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="16.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="9"/>
+    <col min="13" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" customHeight="1">
@@ -14100,7 +14100,7 @@
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
     </row>
-    <row r="3" spans="1:18" s="14" customFormat="1" ht="12" thickBot="1">
+    <row r="3" spans="1:18" s="14" customFormat="1" thickBot="1">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
@@ -14670,13 +14670,13 @@
       <c r="P20" s="20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" s="19" customFormat="1" ht="13" thickTop="1">
+    <row r="21" spans="1:18" s="19" customFormat="1" ht="13.5" thickTop="1">
       <c r="B21" s="20"/>
       <c r="E21" s="20"/>
       <c r="H21" s="20"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" s="19" customFormat="1" ht="11.5">
+    <row r="22" spans="1:18" s="19" customFormat="1" ht="12">
       <c r="A22" s="19" t="s">
         <v>22</v>
       </c>
@@ -14713,7 +14713,7 @@
       <c r="I25" s="123"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:18" s="19" customFormat="1" ht="11.5">
+    <row r="26" spans="1:18" s="19" customFormat="1" ht="12">
       <c r="A26" s="19" t="s">
         <v>24</v>
       </c>
